--- a/src/locales/lang.xlsx
+++ b/src/locales/lang.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22400" windowHeight="10080"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>key</t>
   </si>
@@ -38,88 +25,52 @@
     <t>en</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>测试</t>
+    <t>menu.catalogue</t>
+  </si>
+  <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <t>menu.catalogue.perm</t>
+  </si>
+  <si>
+    <t>目录页面权限测试</t>
+  </si>
+  <si>
+    <t>menu.catalogue.perm.edit</t>
+  </si>
+  <si>
+    <t>目录页面权限编辑页测试</t>
+  </si>
+  <si>
+    <t>menu.catalogue.no-perm-set</t>
+  </si>
+  <si>
+    <t>目录页面未设置权限测试</t>
+  </si>
+  <si>
+    <t>menu.perm</t>
+  </si>
+  <si>
+    <t>权限页测试</t>
+  </si>
+  <si>
+    <t>menu.no-perm-set</t>
+  </si>
+  <si>
+    <t>权限页测试空权限点</t>
   </si>
   <si>
     <t>menu.workbench</t>
   </si>
   <si>
     <t>工作台</t>
-  </si>
-  <si>
-    <t>workbench</t>
-  </si>
-  <si>
-    <t>menu.perm</t>
-  </si>
-  <si>
-    <t>perm测试</t>
-  </si>
-  <si>
-    <t>perm test</t>
-  </si>
-  <si>
-    <t>menu.perm1</t>
-  </si>
-  <si>
-    <t>权限页1</t>
-  </si>
-  <si>
-    <t>perm1</t>
-  </si>
-  <si>
-    <t>menu.perm2</t>
-  </si>
-  <si>
-    <t>权限页2</t>
-  </si>
-  <si>
-    <t>perm2</t>
-  </si>
-  <si>
-    <t>menu.app2</t>
-  </si>
-  <si>
-    <t>应用2perm测试</t>
-  </si>
-  <si>
-    <t>app2 perm test</t>
-  </si>
-  <si>
-    <t>menu.app2Perm1</t>
-  </si>
-  <si>
-    <t>应用2权限页1</t>
-  </si>
-  <si>
-    <t>app2 perm1</t>
-  </si>
-  <si>
-    <t>menu.app2Perm2</t>
-  </si>
-  <si>
-    <t>应用2权限页2</t>
-  </si>
-  <si>
-    <t>app2 perm2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1119,17 +1070,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="39.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="65.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="39.6696428571429" customWidth="1"/>
+    <col min="2" max="2" width="54.6696428571429" customWidth="1"/>
+    <col min="3" max="3" width="65.4196428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1151,92 +1102,55 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
